--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Comp-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Comp-Itga5.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.569336</v>
+        <v>0.3194513333333333</v>
       </c>
       <c r="H2">
-        <v>1.708008</v>
+        <v>0.9583539999999999</v>
       </c>
       <c r="I2">
-        <v>0.01936485544401529</v>
+        <v>0.01095865642710367</v>
       </c>
       <c r="J2">
-        <v>0.01936485544401529</v>
+        <v>0.01095865642710367</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N2">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O2">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P2">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q2">
-        <v>19.39770243443466</v>
+        <v>3.560874817161334</v>
       </c>
       <c r="R2">
-        <v>174.579321909912</v>
+        <v>32.047873354452</v>
       </c>
       <c r="S2">
-        <v>0.01001446623822896</v>
+        <v>0.002843558838783867</v>
       </c>
       <c r="T2">
-        <v>0.01001446623822896</v>
+        <v>0.002843558838783867</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.569336</v>
+        <v>0.3194513333333333</v>
       </c>
       <c r="H3">
-        <v>1.708008</v>
+        <v>0.9583539999999999</v>
       </c>
       <c r="I3">
-        <v>0.01936485544401529</v>
+        <v>0.01095865642710367</v>
       </c>
       <c r="J3">
-        <v>0.01936485544401529</v>
+        <v>0.01095865642710367</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P3">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q3">
-        <v>15.762350119992</v>
+        <v>8.844168930645999</v>
       </c>
       <c r="R3">
-        <v>141.861151079928</v>
+        <v>79.59752037581399</v>
       </c>
       <c r="S3">
-        <v>0.008137640199675767</v>
+        <v>0.007062566370834783</v>
       </c>
       <c r="T3">
-        <v>0.008137640199675769</v>
+        <v>0.007062566370834784</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.569336</v>
+        <v>0.3194513333333333</v>
       </c>
       <c r="H4">
-        <v>1.708008</v>
+        <v>0.9583539999999999</v>
       </c>
       <c r="I4">
-        <v>0.01936485544401529</v>
+        <v>0.01095865642710367</v>
       </c>
       <c r="J4">
-        <v>0.01936485544401529</v>
+        <v>0.01095865642710367</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q4">
-        <v>2.349056234109333</v>
+        <v>1.318042677893556</v>
       </c>
       <c r="R4">
-        <v>21.141506106984</v>
+        <v>11.862384101042</v>
       </c>
       <c r="S4">
-        <v>0.001212749006110568</v>
+        <v>0.001052531217485023</v>
       </c>
       <c r="T4">
-        <v>0.001212749006110568</v>
+        <v>0.001052531217485023</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>84.94397599999999</v>
       </c>
       <c r="I5">
-        <v>0.9630679809930072</v>
+        <v>0.9713235907985359</v>
       </c>
       <c r="J5">
-        <v>0.9630679809930072</v>
+        <v>0.971323590798536</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N5">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O5">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P5">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q5">
-        <v>964.7015529469179</v>
+        <v>315.6191396998987</v>
       </c>
       <c r="R5">
-        <v>8682.313976522262</v>
+        <v>2840.572257299088</v>
       </c>
       <c r="S5">
-        <v>0.4980471870113785</v>
+        <v>0.2520396364560952</v>
       </c>
       <c r="T5">
-        <v>0.4980471870113786</v>
+        <v>0.2520396364560952</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>84.94397599999999</v>
       </c>
       <c r="I6">
-        <v>0.9630679809930072</v>
+        <v>0.9713235907985359</v>
       </c>
       <c r="J6">
-        <v>0.9630679809930072</v>
+        <v>0.971323590798536</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P6">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q6">
         <v>783.9053975720238</v>
@@ -818,10 +818,10 @@
         <v>7055.148578148215</v>
       </c>
       <c r="S6">
-        <v>0.404707421638478</v>
+        <v>0.6259925542154537</v>
       </c>
       <c r="T6">
-        <v>0.4047074216384781</v>
+        <v>0.6259925542154537</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>84.94397599999999</v>
       </c>
       <c r="I7">
-        <v>0.9630679809930072</v>
+        <v>0.9713235907985359</v>
       </c>
       <c r="J7">
-        <v>0.9630679809930072</v>
+        <v>0.971323590798536</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q7">
         <v>116.8250830047831</v>
@@ -880,10 +880,10 @@
         <v>1051.425747043048</v>
       </c>
       <c r="S7">
-        <v>0.06031337234315057</v>
+        <v>0.09329140012698708</v>
       </c>
       <c r="T7">
-        <v>0.06031337234315057</v>
+        <v>0.09329140012698708</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.549449</v>
       </c>
       <c r="I8">
-        <v>0.01756716356297749</v>
+        <v>0.01771775277436037</v>
       </c>
       <c r="J8">
-        <v>0.01756716356297749</v>
+        <v>0.01771775277436037</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N8">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O8">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P8">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q8">
-        <v>17.596961278479</v>
+        <v>5.757156462618001</v>
       </c>
       <c r="R8">
-        <v>158.372651506311</v>
+        <v>51.81440816356201</v>
       </c>
       <c r="S8">
-        <v>0.009084796264629684</v>
+        <v>0.004597413272334466</v>
       </c>
       <c r="T8">
-        <v>0.009084796264629685</v>
+        <v>0.004597413272334466</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.549449</v>
       </c>
       <c r="I9">
-        <v>0.01756716356297749</v>
+        <v>0.01771775277436037</v>
       </c>
       <c r="J9">
-        <v>0.01756716356297749</v>
+        <v>0.01771775277436037</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P9">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q9">
         <v>14.299088547051</v>
@@ -1004,10 +1004,10 @@
         <v>128.691796923459</v>
       </c>
       <c r="S9">
-        <v>0.007382201060971271</v>
+        <v>0.01141862652080921</v>
       </c>
       <c r="T9">
-        <v>0.007382201060971272</v>
+        <v>0.01141862652080921</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.549449</v>
       </c>
       <c r="I10">
-        <v>0.01756716356297749</v>
+        <v>0.01771775277436037</v>
       </c>
       <c r="J10">
-        <v>0.01756716356297749</v>
+        <v>0.01771775277436037</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q10">
         <v>2.130986993553</v>
@@ -1066,10 +1066,10 @@
         <v>19.178882941977</v>
       </c>
       <c r="S10">
-        <v>0.001100166237376531</v>
+        <v>0.001701712981216703</v>
       </c>
       <c r="T10">
-        <v>0.001100166237376531</v>
+        <v>0.001701712981216703</v>
       </c>
     </row>
   </sheetData>
